--- a/poznamky/FTP-test/ftp-test.xlsx
+++ b/poznamky/FTP-test/ftp-test.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="5740" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5200" yWindow="5700" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Power Based Training Zones" sheetId="2" r:id="rId1"/>
-    <sheet name="15mins trial (not 20)" sheetId="1" r:id="rId2"/>
+    <sheet name="printable" sheetId="3" r:id="rId2"/>
+    <sheet name="15mins trial (not 20)" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -76,9 +77,6 @@
     <t>&lt;55%</t>
   </si>
   <si>
-    <t>&lt;68</t>
-  </si>
-  <si>
     <t>&lt;2</t>
   </si>
   <si>
@@ -142,10 +140,6 @@
     <t>Neuromuscular Power</t>
   </si>
   <si>
-    <t>95-105%
- (may not be achieved during initial phases of effort(s))</t>
-  </si>
-  <si>
     <t>Maximal</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
   </si>
   <si>
     <t>Typical intensity of fartlek workout, 'spirited' group ride, or briskly moving paceline. More frequent/greater sensation of leg effort/fatigue than at level 2. Requires concentration to maintain alone, especially at upper end of range, to prevent effort from falling back to level 2. Breathing deeper and more rhythmic than level 2, such that any conversation must be somewhat halting, but not as difficult as at level 4. Recovery from level 3 training sessions more difficult than after level 2 workouts, but consecutive days of level 3 training still possible if duration is not excessive and dietary carbohydrate intake is adequate.</t>
-  </si>
-  <si>
-    <t>Just below to just above TT effort, taking into account duration, current fitness, environmental conditions, etc. Essentially continuous sensation of moderate or even greater leg effort/fatigue. Continuous conversation difficult at best, due to depth/frequency of breathing. Effort sufficiently high that sustained exercise at this level is mentally very taxing - therefore typically performed in training as multiple 'repeats', 'modules', or 'blocks' of 10-30 min duration. Consecutive days of training at level 4 possible, but such workouts generally only performed when sufficiently rested/recovered from prior training so as to be able to maintain intensity.</t>
   </si>
   <si>
     <t>Typical intensity of longer (3-8 min) intervals intended to increase VO2max. Strong to severe sensations of leg effort/fatigue, such that completion of more than 30-40 min total training time is difficult at best. Conversation not possible due to often 'ragged' breathing. Should generally be attempted only when adequately recovered from prior training - consecutive days of level 5 work not necessarily desirable even if possible. Note: At this level, the average heart rate may not be due to slowness of heart rate response and/or ceiling imposed by maximum heart rate)</t>
@@ -211,12 +202,23 @@
   <si>
     <t>Extremely Strong</t>
   </si>
+  <si>
+    <t>&lt;68%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95-105%
+</t>
+  </si>
+  <si>
+    <t>HR:  (may not be achieved during initial phases of effort(s))
+Just below to just above TT effort, taking into account duration, current fitness, environmental conditions, etc. Essentially continuous sensation of moderate or even greater leg effort/fatigue. Continuous conversation difficult at best, due to depth/frequency of breathing. Effort sufficiently high that sustained exercise at this level is mentally very taxing - therefore typically performed in training as multiple 'repeats', 'modules', or 'blocks' of 10-30 min duration. Consecutive days of training at level 4 possible, but such workouts generally only performed when sufficiently rested/recovered from prior training so as to be able to maintain intensity.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,8 +250,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +300,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -305,7 +367,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -327,8 +389,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -392,8 +458,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -404,6 +509,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -414,6 +521,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -745,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -770,7 +879,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1">
@@ -790,10 +899,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>12</v>
@@ -823,13 +932,13 @@
         <v>17</v>
       </c>
       <c r="F4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="150">
@@ -837,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="15">
         <f>0.56*B1</f>
@@ -848,16 +957,16 @@
         <v>128.25</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="150">
@@ -865,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="15">
         <f>0.76*B1</f>
@@ -876,24 +985,24 @@
         <v>153.9</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="165">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="195">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="15">
         <f>0.91*B1</f>
@@ -904,16 +1013,16 @@
         <v>179.55</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="135">
@@ -921,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="15">
         <f>1.06*B1</f>
@@ -932,16 +1041,16 @@
         <v>205.2</v>
       </c>
       <c r="E8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="90">
@@ -949,26 +1058,26 @@
         <v>6</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="15">
         <f>1.21*B1</f>
         <v>206.91</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>34</v>
-      </c>
       <c r="H9" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60">
@@ -976,21 +1085,21 @@
         <v>7</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="20"/>
       <c r="G10" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1006,15 +1115,15 @@
         <v>0</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="G15" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1022,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="7:8">
@@ -1030,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="7:8">
@@ -1038,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="7:8">
@@ -1046,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="7:8">
@@ -1054,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="7:8">
@@ -1068,7 +1177,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="7:8">
@@ -1088,15 +1197,15 @@
         <v>10</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="7:8">
       <c r="G26" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1112,9 +1221,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="25">
+      <c r="A2" s="27" t="str">
+        <f>'Power Based Training Zones'!B4</f>
+        <v>Active Recovery</v>
+      </c>
+      <c r="B2" s="34">
+        <f>'Power Based Training Zones'!C4</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <f>'Power Based Training Zones'!D4</f>
+        <v>94.050000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25">
+      <c r="A3" s="28" t="str">
+        <f>'Power Based Training Zones'!B5</f>
+        <v>Endurance</v>
+      </c>
+      <c r="B3" s="35">
+        <f>'Power Based Training Zones'!C5</f>
+        <v>95.76</v>
+      </c>
+      <c r="C3" s="35">
+        <f>'Power Based Training Zones'!D5</f>
+        <v>128.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25">
+      <c r="A4" s="29" t="str">
+        <f>'Power Based Training Zones'!B6</f>
+        <v>Tempo</v>
+      </c>
+      <c r="B4" s="36">
+        <f>'Power Based Training Zones'!C6</f>
+        <v>129.96</v>
+      </c>
+      <c r="C4" s="36">
+        <f>'Power Based Training Zones'!D6</f>
+        <v>153.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25">
+      <c r="A5" s="30" t="str">
+        <f>'Power Based Training Zones'!B7</f>
+        <v>Lactate Threshold</v>
+      </c>
+      <c r="B5" s="37">
+        <f>'Power Based Training Zones'!C7</f>
+        <v>155.61000000000001</v>
+      </c>
+      <c r="C5" s="37">
+        <f>'Power Based Training Zones'!D7</f>
+        <v>179.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25">
+      <c r="A6" s="31" t="str">
+        <f>'Power Based Training Zones'!B8</f>
+        <v>VO2 Max</v>
+      </c>
+      <c r="B6" s="38">
+        <f>'Power Based Training Zones'!C8</f>
+        <v>181.26000000000002</v>
+      </c>
+      <c r="C6" s="38">
+        <f>'Power Based Training Zones'!D8</f>
+        <v>205.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25">
+      <c r="A7" s="32" t="str">
+        <f>'Power Based Training Zones'!B9</f>
+        <v>Anaerobic Capacity</v>
+      </c>
+      <c r="B7" s="39">
+        <f>'Power Based Training Zones'!C9</f>
+        <v>206.91</v>
+      </c>
+      <c r="C7" s="39" t="str">
+        <f>'Power Based Training Zones'!D9</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25">
+      <c r="A8" s="33" t="str">
+        <f>'Power Based Training Zones'!B10</f>
+        <v>Neuromuscular Power</v>
+      </c>
+      <c r="B8" s="33" t="str">
+        <f>'Power Based Training Zones'!C10</f>
+        <v>N/A</v>
+      </c>
+      <c r="C8" s="33" t="str">
+        <f>'Power Based Training Zones'!D10</f>
+        <v>N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>

--- a/poznamky/FTP-test/ftp-test.xlsx
+++ b/poznamky/FTP-test/ftp-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="5700" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5200" yWindow="5700" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Power Based Training Zones" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Time</t>
   </si>
@@ -213,6 +213,12 @@
     <t>HR:  (may not be achieved during initial phases of effort(s))
 Just below to just above TT effort, taking into account duration, current fitness, environmental conditions, etc. Essentially continuous sensation of moderate or even greater leg effort/fatigue. Continuous conversation difficult at best, due to depth/frequency of breathing. Effort sufficiently high that sustained exercise at this level is mentally very taxing - therefore typically performed in training as multiple 'repeats', 'modules', or 'blocks' of 10-30 min duration. Consecutive days of training at level 4 possible, but such workouts generally only performed when sufficiently rested/recovered from prior training so as to be able to maintain intensity.</t>
   </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>bmp</t>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +373,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -393,8 +399,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -501,8 +519,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -515,6 +543,12 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -527,6 +561,12 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -856,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -869,12 +909,14 @@
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="49" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,16 +928,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7"/>
+    <row r="2" spans="1:10" s="5" customFormat="1">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7">
+        <v>165</v>
+      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="13"/>
+      <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="13"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -911,14 +961,16 @@
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="105">
+    <row r="4" spans="1:10" ht="105">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -935,17 +987,24 @@
       <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <f>B2*0.68</f>
+        <v>112.2</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="150">
+    <row r="5" spans="1:10" ht="150">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -963,17 +1022,25 @@
       <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12">
+        <f>B2*0.69</f>
+        <v>113.85</v>
+      </c>
+      <c r="G5" s="12">
+        <f>B2*0.83</f>
+        <v>136.94999999999999</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="150">
+    <row r="6" spans="1:10" ht="150">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -991,17 +1058,25 @@
       <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="12">
+        <f>B2*0.84</f>
+        <v>138.6</v>
+      </c>
+      <c r="G6" s="12">
+        <f>B2*0.94</f>
+        <v>155.1</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="195">
+    <row r="7" spans="1:10" ht="195">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -1019,17 +1094,25 @@
       <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="12">
+        <f>B2*0.95</f>
+        <v>156.75</v>
+      </c>
+      <c r="G7" s="12">
+        <f>B2*1.05</f>
+        <v>173.25</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="I7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="135">
+    <row r="8" spans="1:10" ht="135">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -1047,17 +1130,22 @@
       <c r="E8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="12">
+        <f>B2*1.06</f>
+        <v>174.9</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="I8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="90">
+    <row r="9" spans="1:10" ht="90">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -1074,17 +1162,19 @@
       <c r="E9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="I9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60">
+    <row r="10" spans="1:10" ht="60">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -1098,117 +1188,119 @@
         <v>32</v>
       </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="G13" s="22" t="s">
+    <row r="13" spans="1:10">
+      <c r="I13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21" t="s">
+    <row r="14" spans="1:10">
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="G15" s="20" t="s">
+    <row r="15" spans="1:10">
+      <c r="I15" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="J15" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="G16" s="20">
+    <row r="16" spans="1:10">
+      <c r="I16" s="20">
         <v>1</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="J16" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="7:8">
-      <c r="G17" s="20">
+    <row r="17" spans="9:10">
+      <c r="I17" s="20">
         <v>2</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="J17" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="7:8">
-      <c r="G18" s="20">
+    <row r="18" spans="9:10">
+      <c r="I18" s="20">
         <v>3</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="7:8">
-      <c r="G19" s="20">
+    <row r="19" spans="9:10">
+      <c r="I19" s="20">
         <v>4</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="J19" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
-      <c r="G20" s="20">
+    <row r="20" spans="9:10">
+      <c r="I20" s="20">
         <v>5</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="J20" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="7:8">
-      <c r="G21" s="20">
+    <row r="21" spans="9:10">
+      <c r="I21" s="20">
         <v>6</v>
       </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="7:8">
-      <c r="G22" s="20">
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="20">
         <v>7</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="7:8">
-      <c r="G23" s="20">
+    <row r="23" spans="9:10">
+      <c r="I23" s="20">
         <v>8</v>
       </c>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="7:8">
-      <c r="G24" s="20">
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="9:10">
+      <c r="I24" s="20">
         <v>9</v>
       </c>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="7:8">
-      <c r="G25" s="20">
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="9:10">
+      <c r="I25" s="20">
         <v>10</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="J25" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="7:8">
-      <c r="G26" s="20" t="s">
+    <row r="26" spans="9:10">
+      <c r="I26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="J26" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1225,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1238,7 +1330,7 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="25">
+    <row r="2" spans="1:5" ht="25">
       <c r="A2" s="24" t="str">
         <f>'Power Based Training Zones'!B4</f>
         <v>Active Recovery</v>
@@ -1251,8 +1343,16 @@
         <f>'Power Based Training Zones'!D4</f>
         <v>94.050000000000011</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="25">
+      <c r="D2" s="31">
+        <f>'Power Based Training Zones'!F4</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="31">
+        <f>'Power Based Training Zones'!G4</f>
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25">
       <c r="A3" s="25" t="str">
         <f>'Power Based Training Zones'!B5</f>
         <v>Endurance</v>
@@ -1265,8 +1365,16 @@
         <f>'Power Based Training Zones'!D5</f>
         <v>128.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25">
+      <c r="D3" s="32">
+        <f>'Power Based Training Zones'!F5</f>
+        <v>113.85</v>
+      </c>
+      <c r="E3" s="32">
+        <f>'Power Based Training Zones'!G5</f>
+        <v>136.94999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25">
       <c r="A4" s="26" t="str">
         <f>'Power Based Training Zones'!B6</f>
         <v>Tempo</v>
@@ -1279,8 +1387,16 @@
         <f>'Power Based Training Zones'!D6</f>
         <v>153.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="25">
+      <c r="D4" s="33">
+        <f>'Power Based Training Zones'!F6</f>
+        <v>138.6</v>
+      </c>
+      <c r="E4" s="33">
+        <f>'Power Based Training Zones'!G6</f>
+        <v>155.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25">
       <c r="A5" s="27" t="str">
         <f>'Power Based Training Zones'!B7</f>
         <v>Lactate Threshold</v>
@@ -1293,8 +1409,16 @@
         <f>'Power Based Training Zones'!D7</f>
         <v>179.55</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="25">
+      <c r="D5" s="34">
+        <f>'Power Based Training Zones'!F7</f>
+        <v>156.75</v>
+      </c>
+      <c r="E5" s="34">
+        <f>'Power Based Training Zones'!G7</f>
+        <v>173.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25">
       <c r="A6" s="28" t="str">
         <f>'Power Based Training Zones'!B8</f>
         <v>VO2 Max</v>
@@ -1307,8 +1431,13 @@
         <f>'Power Based Training Zones'!D8</f>
         <v>205.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="25">
+      <c r="D6" s="35">
+        <f>'Power Based Training Zones'!F8</f>
+        <v>174.9</v>
+      </c>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" ht="25">
       <c r="A7" s="29" t="str">
         <f>'Power Based Training Zones'!B9</f>
         <v>Anaerobic Capacity</v>
@@ -1321,8 +1450,10 @@
         <f>'Power Based Training Zones'!D9</f>
         <v>N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="25">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:5" ht="25">
       <c r="A8" s="30" t="str">
         <f>'Power Based Training Zones'!B10</f>
         <v>Neuromuscular Power</v>
@@ -1335,6 +1466,8 @@
         <f>'Power Based Training Zones'!D10</f>
         <v>N/A</v>
       </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1352,7 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1020"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
